--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1146673.778482486</v>
+        <v>1095354.117138119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84019.01917288519</v>
+        <v>4999.035981161936</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.80453676746937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>325.0061024905053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>86.88462298447467</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255734</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.39108932486009</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>302.7279097246867</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.264003285459337</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>253.9085398096167</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>246.8191300858951</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.57678144609342</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3567277916625</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>58.73196994276498</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>23.4869295043391</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>192.425944641115</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.91827500188584</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>96.17987117776011</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>45.20460341635873</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>334.5817096732201</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.123481276657944</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>69.40414780104466</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>85.42957511242977</v>
+        <v>84.82872955935048</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.52687838733109</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>269.5431107021499</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>78.41404262324743</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>33.84234274505315</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.829451203085018</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>113.9615837039749</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.6743229269904</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>53.06513659042616</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>24.25641376481878</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>102.6386299168225</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>28.23685674715334</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>275.4805812731087</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>171.7498680634319</v>
       </c>
     </row>
     <row r="38">
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>168.2837405628837</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>100.1875746692276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>85.87170836083689</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>56.8819698781575</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>262.98102090663</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480844</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>112.4704182164286</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.60564476255257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.2714565048808</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>166.0557051511992</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.9978294690252</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.36452066793952</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.657628994267</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.657628994267</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>920.3919303875161</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1665.257469058388</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1665.257469058388</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1665.257469058388</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.257469058388</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600561</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.603677789272</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>534.603677789272</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D5" t="n">
-        <v>534.603677789272</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E5" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2036.885894456657</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2423.485734520778</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="9">
@@ -4886,28 +4886,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>663.9100130487641</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5053,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
         <v>53.94298182036445</v>
@@ -5278,52 +5278,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990286</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.514423990286</v>
+        <v>2673.424919801718</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.31497677176429</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1135.888471323017</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C17" t="n">
-        <v>766.9259543826058</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="D17" t="n">
-        <v>766.9259543826058</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2596.459185976636</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2596.459185976636</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V17" t="n">
-        <v>2265.396298633065</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W17" t="n">
-        <v>1912.627643362951</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X17" t="n">
-        <v>1912.627643362951</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y17" t="n">
-        <v>1522.488311387139</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>224.6669506791651</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>224.6669506791651</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>513.8405610245972</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>513.8405610245972</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>443.7353612255621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.959449965771</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253592</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y23" t="n">
-        <v>1553.559290029893</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6077,16 +6077,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2528.212908090316</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2378.09626867798</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2230.183175095587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2083.293227597677</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018223</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1626.94664591678</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
         <v>882.8926947117852</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6259,19 +6259,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W26" t="n">
-        <v>2289.351746278602</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X26" t="n">
-        <v>2017.085977892592</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y26" t="n">
-        <v>1626.94664591678</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>257.0633493392342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>88.12716641132724</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>88.12716641132724</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>88.12716641132724</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>88.12716641132724</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>88.12716641132724</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>88.12716641132724</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036446</v>
@@ -6420,16 +6420,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694738</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2690.250655459551</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2690.250655459551</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2690.250655459551</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2690.250655459551</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2359.18776811598</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2359.18776811598</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.7220098549</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.582677879089</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2173.079728044489</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>2173.079728044489</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2582.036380206127</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2582.036380206127</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2354.728192874729</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2354.728192874729</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2354.728192874729</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2354.728192874729</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X31" t="n">
-        <v>2354.728192874729</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y31" t="n">
-        <v>2354.728192874729</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1268.68094731003</v>
+        <v>1273.280804219766</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>904.3182872793539</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>904.3182872793539</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>518.5300346811096</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>107.544129891502</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036446</v>
@@ -6700,10 +6700,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224079</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2672.647662972951</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2672.647662972951</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2672.647662972951</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U32" t="n">
-        <v>2418.885877611043</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V32" t="n">
-        <v>2418.885877611043</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W32" t="n">
-        <v>2418.885877611043</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X32" t="n">
-        <v>2045.420119349963</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y32" t="n">
-        <v>1655.280787374151</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,25 +6779,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.5382038240418</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="C34" t="n">
-        <v>149.5382038240418</v>
+        <v>304.5083130726409</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726409</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726409</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>157.6183655747306</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>157.6183655747306</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036446</v>
@@ -6867,43 +6867,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610024</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5382038240418</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="X34" t="n">
-        <v>149.5382038240418</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.5382038240418</v>
+        <v>473.4444960005478</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1408.645612988121</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>1039.683096047709</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1039.683096047709</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>653.894843449465</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6952,37 +6952,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>1782.111371249201</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>1408.645612988121</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1408.645612988121</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.5382038240418</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C37" t="n">
-        <v>149.5382038240418</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D37" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L37" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.5382038240418</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1362.140678483279</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="C38" t="n">
-        <v>993.1781615428677</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D38" t="n">
-        <v>634.9124629361172</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E38" t="n">
-        <v>634.9124629361172</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F38" t="n">
-        <v>223.9265581465096</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990285</v>
+        <v>2595.949520645266</v>
       </c>
       <c r="V38" t="n">
-        <v>2478.514423990285</v>
+        <v>2264.886633301695</v>
       </c>
       <c r="W38" t="n">
-        <v>2125.745768720171</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="X38" t="n">
-        <v>1752.280010459091</v>
+        <v>1912.117978031581</v>
       </c>
       <c r="Y38" t="n">
-        <v>1362.140678483279</v>
+        <v>1912.117978031581</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9727148150934</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U40" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V40" t="n">
-        <v>2425.404132605923</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W40" t="n">
-        <v>2425.404132605923</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="X40" t="n">
-        <v>2425.404132605923</v>
+        <v>438.7118141694741</v>
       </c>
       <c r="Y40" t="n">
-        <v>2204.611553462393</v>
+        <v>438.7118141694741</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1534.318342165211</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307292</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1122.952954307292</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>737.1647017090472</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194397</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7447,16 +7447,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2311.057514205145</v>
+        <v>2268.654643287637</v>
       </c>
       <c r="Y41" t="n">
-        <v>1920.918182229333</v>
+        <v>1878.515311311825</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M42" t="n">
         <v>1237.953133915166</v>
@@ -7505,10 +7505,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>391.878965009939</v>
+        <v>325.2978374347318</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>325.2978374347318</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>325.2978374347318</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610022</v>
+        <v>325.2978374347318</v>
       </c>
       <c r="X43" t="n">
-        <v>438.9553738610022</v>
+        <v>325.2978374347318</v>
       </c>
       <c r="Y43" t="n">
-        <v>391.878965009939</v>
+        <v>325.2978374347318</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1964.838184214438</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="C44" t="n">
-        <v>1595.875667274027</v>
+        <v>1736.086148788795</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.875667274027</v>
+        <v>1377.820450182044</v>
       </c>
       <c r="E44" t="n">
         <v>1210.087414675782</v>
@@ -7642,10 +7642,10 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7663,37 +7663,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548716</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572904</v>
+        <v>2105.048665729206</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.878965009939</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C46" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D46" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L46" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694738</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694738</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.878965009939</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>345.9293048960112</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>2.746155979629634</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>80.36219811415316</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735787</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.3427523386205</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>79.20246034757508</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>27.85874666945496</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>111.3643519613909</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>80.93312838423978</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>82.85718120047575</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>31.86743971662685</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>290.508998774648</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209452</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047564</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23548,16 +23548,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.9613908533187</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>135.3263138290199</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>90.04734679045239</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853699</v>
@@ -23703,19 +23703,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>285.7504988945017</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>171.2437169412991</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.81525101172465</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,19 +23940,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>30.69118209778748</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24019,22 +24019,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>324.6287771934769</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24177,25 +24177,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>217.1188505355464</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24256,25 +24256,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.8083635436238</v>
+        <v>301.4092090967031</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>152.7829238717198</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>100.1879899763192</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>307.8238960328061</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>101.1232790472851</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24660,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>47.64895137172668</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,13 +24739,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>32.70360827618291</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>4.910330425104377</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>360.7190334303688</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>30.22198880999292</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25077,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>53.97620323457181</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>53.53225892497267</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801578</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>378.6391889945581</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25213,16 +25213,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>73.76038744430434</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.79469286292863</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866286</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>245.5004294579113</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>151.0365928390617</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>93.96027182110041</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25608,16 +25608,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>195.2556734456705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>102.2918708643776</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>144.2707130727106</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>36.14505480178379</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,10 +25842,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.9790085895422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.46238515859977</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>215.8746649210626</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,13 +26040,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>77.28404477295248</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.2201326841553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401824</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737339.155540182</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="N2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149698</v>
-      </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="F4" t="n">
         <v>513.1084990597035</v>
-      </c>
-      <c r="F4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26444,22 +26444,22 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
+        <v>513.1084990597035</v>
+      </c>
+      <c r="L4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="M4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="N4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="O4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="P4" t="n">
         <v>513.1084990597036</v>
-      </c>
-      <c r="L4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="M4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="N4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="O4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="P4" t="n">
-        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26499,19 +26499,19 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398645.0862620439</v>
+        <v>-404713.5000078631</v>
       </c>
       <c r="C6" t="n">
-        <v>191322.7929525007</v>
+        <v>185254.3792066814</v>
       </c>
       <c r="D6" t="n">
-        <v>191322.7929525007</v>
+        <v>185254.3792066814</v>
       </c>
       <c r="E6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="F6" t="n">
-        <v>224950.3929525005</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="G6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="H6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
       <c r="I6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="J6" t="n">
-        <v>48527.17375990762</v>
+        <v>42458.76001408842</v>
       </c>
       <c r="K6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="L6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="M6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="N6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066814</v>
       </c>
       <c r="O6" t="n">
-        <v>224950.3929525007</v>
+        <v>218881.9792066813</v>
       </c>
       <c r="P6" t="n">
-        <v>224950.3929525006</v>
+        <v>218881.9792066815</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26810,7 +26810,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31998,7 +31998,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727431</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081578</v>
@@ -32077,10 +32077,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32098,7 +32098,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034983</v>
@@ -32314,10 +32314,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034983</v>
@@ -32472,7 +32472,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727431</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081578</v>
@@ -32554,7 +32554,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034983</v>
@@ -32797,7 +32797,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034983</v>
@@ -33025,10 +33025,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034983</v>
@@ -33268,7 +33268,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034983</v>
@@ -33414,10 +33414,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33426,34 +33426,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33590,28 +33590,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33663,34 +33663,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33827,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N39" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,28 +34064,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O42" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,10 +34362,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34374,34 +34374,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O45" t="n">
-        <v>149.897181251634</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
         <v>297.223041434342</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338903</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L34" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M34" t="n">
         <v>146.3614835535656</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O45" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095354.117138119</v>
+        <v>1141049.386191716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4999.035981161936</v>
+        <v>15992.88758453596</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.80453676746937</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>9.192885533048997</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C4" t="n">
-        <v>86.88462298447467</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>224.574765562255</v>
       </c>
       <c r="E5" t="n">
-        <v>302.7279097246867</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.264003285459337</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>17.15656674520552</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>246.8191300858951</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>264.6760440799076</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>114.4004997393763</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>58.73196994276498</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>23.4869295043391</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>24.53073834780966</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.91827500188584</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>96.17987117776011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>161.7233591037339</v>
       </c>
       <c r="V20" t="n">
-        <v>3.123481276657944</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2377,16 +2377,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>123.0607915108177</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.82872955935048</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.41404262324743</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>284.56151600587</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>186.8009471033407</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.6743229269904</v>
+        <v>51.05460352320711</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>30.74671696643849</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>53.06513659042616</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>102.6386299168225</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>275.4805812731087</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>190.2713935802969</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.7498680634319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>100.1875746692276</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.87170836083689</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>137.815461996044</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480844</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>112.4704182164286</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0557051511992</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>46.58646588932459</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U46" t="n">
-        <v>208.9978294690252</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>390.4234447470374</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>63.22872478304021</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.674302457628</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1073.534970481816</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>726.852213211021</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>726.852213211021</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>726.852213211021</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>726.852213211021</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="U7" t="n">
-        <v>726.852213211021</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="V7" t="n">
-        <v>726.852213211021</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W7" t="n">
-        <v>726.852213211021</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2017.897565358469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2017.897565358469</v>
+        <v>1395.134034654816</v>
       </c>
       <c r="X8" t="n">
-        <v>2017.897565358469</v>
+        <v>1395.134034654816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>1004.994702679004</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>882.8926947117852</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U11" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>2092.422847177208</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W11" t="n">
-        <v>2033.097625012799</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X11" t="n">
-        <v>1659.631866751719</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y11" t="n">
-        <v>1269.492534775907</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5232,19 +5232,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1192.157102157134</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C14" t="n">
-        <v>823.1945852167225</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D14" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2673.424919801718</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2673.424919801718</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>2342.362032458147</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>2342.362032458147</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X14" t="n">
-        <v>1968.896274197068</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="Y14" t="n">
-        <v>1578.756942221256</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5360,40 +5360,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>257.0633493392342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C16" t="n">
-        <v>257.0633493392342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D16" t="n">
-        <v>257.0633493392342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E16" t="n">
-        <v>257.0633493392342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F16" t="n">
-        <v>257.0633493392342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G16" t="n">
-        <v>257.0633493392342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H16" t="n">
-        <v>99.31497677176429</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694738</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694738</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694738</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1349.006596680237</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>980.0440797398257</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>980.0440797398257</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
         <v>882.8926947117852</v>
@@ -5506,22 +5506,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2478.514423990285</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W17" t="n">
-        <v>2125.745768720171</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X17" t="n">
-        <v>2125.745768720171</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y17" t="n">
-        <v>1735.606436744359</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1268.68094731003</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.68094731003</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.585985475276</v>
       </c>
       <c r="V20" t="n">
-        <v>2045.420119349963</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="W20" t="n">
-        <v>2045.420119349963</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X20" t="n">
-        <v>2045.420119349963</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y20" t="n">
-        <v>1655.280787374151</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5940,22 +5940,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1610.120910258947</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5992,10 +5992,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2048.575150942547</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W23" t="n">
-        <v>1695.806495672433</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X23" t="n">
-        <v>1695.806495672433</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y23" t="n">
-        <v>1610.120910258947</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6089,22 +6089,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1251.855211652197</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
         <v>882.8926947117852</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6259,19 +6259,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843237</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.527073573123</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1331.061315312043</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1251.855211652197</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036446</v>
@@ -6420,16 +6420,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1865.381229508783</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C29" t="n">
-        <v>1496.418712568371</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D29" t="n">
-        <v>1138.15301396162</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E29" t="n">
-        <v>752.3647613633761</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F29" t="n">
-        <v>341.3788565737686</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2508.461265661313</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2254.699480299404</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2254.699480299404</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>1901.93082502929</v>
       </c>
       <c r="X29" t="n">
-        <v>2642.120401548716</v>
+        <v>1901.93082502929</v>
       </c>
       <c r="Y29" t="n">
-        <v>2251.981069572904</v>
+        <v>1511.791493053478</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.8791647482714</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.8791647482714</v>
+        <v>676.5586776173361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1273.280804219766</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C32" t="n">
-        <v>904.3182872793539</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D32" t="n">
-        <v>904.3182872793539</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E32" t="n">
-        <v>518.5300346811096</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F32" t="n">
-        <v>107.544129891502</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520779</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>2423.485734520779</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2423.485734520779</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>2050.019976259699</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1659.880644283887</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6782,22 +6782,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>304.5083130726409</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>304.5083130726409</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>304.5083130726409</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>157.6183655747306</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>157.6183655747306</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036446</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064347</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005478</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>473.4444960005478</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
         <v>1268.68094731003</v>
@@ -6928,22 +6928,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6952,7 +6952,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
         <v>2544.691559791253</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2045.420119349963</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064347</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064347</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064347</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1912.117978031581</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>1543.155461091169</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>1184.889762484419</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>799.1015098861748</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861748</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7189,7 +7189,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
         <v>2544.691559791253</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2595.949520645266</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2264.886633301695</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1912.117978031581</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1912.117978031581</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1912.117978031581</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064347</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064347</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064347</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064347</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694741</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7118141694741</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7118141694741</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307292</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307292</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090472</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194397</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287637</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311825</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>325.2978374347318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>325.2978374347318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406187</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>325.2978374347318</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2978374347318</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>325.2978374347318</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>325.2978374347318</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2105.048665729206</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C44" t="n">
-        <v>1736.086148788795</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D44" t="n">
-        <v>1377.820450182044</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>929.9497309636281</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>518.9638261740206</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>101.0000180722075</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036447</v>
+        <v>101.0000180722075</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7663,37 +7663,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V44" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W44" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X44" t="n">
-        <v>2105.048665729206</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2105.048665729206</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064347</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U46" t="n">
-        <v>517.0200655508536</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V46" t="n">
-        <v>517.0200655508536</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.9293048960112</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>142.7384307118122</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22606,7 +22606,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C4" t="n">
-        <v>80.36219811415316</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22725,10 +22725,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,10 +22789,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>130.1082760584279</v>
       </c>
       <c r="E5" t="n">
-        <v>79.20246034757508</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,19 +22840,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22947,10 +22947,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.85874666945496</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -22995,10 +22995,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>207.8785387128788</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23007,10 +23007,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.93312838423978</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>84.56492463750538</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23229,19 +23229,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.3333419241043</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>290.508998774648</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>59.54933966209452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>218.0915804983416</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23548,19 +23548,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>192.9613908533187</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>345.2003623306594</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>90.04734679045239</v>
+        <v>40.32635200869768</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853699</v>
@@ -23709,7 +23709,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>285.7504988945017</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>106.7500797718384</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293305</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>89.50080840455544</v>
       </c>
       <c r="V20" t="n">
-        <v>324.6287771934769</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689273</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.19995918853699</v>
@@ -24180,13 +24180,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>204.6914669593172</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>301.4092090967031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853699</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.25160475629394</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>133.6808629223865</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.8238960328061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24660,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>129.222654014925</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>29.6473732543171</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.910330425104377</v>
+        <v>167.5300498288877</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>334.5261748045691</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>360.7190334303688</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>53.53225892497267</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>73.76038744430434</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629411</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.83478528866286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>151.0365928390617</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.96027182110041</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>244.9183796674366</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727106</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>36.14505480178379</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>63.13204062090063</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>215.8746649210626</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>105.3448503555367</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U46" t="n">
-        <v>77.28404477295248</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.155540182</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>737339.1555401824</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737339.1555401821</v>
+        <v>737339.1555401823</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737339.1555401824</v>
+        <v>737339.1555401821</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737339.1555401823</v>
+        <v>737339.155540182</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="D2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="E2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="F2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="H2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="E2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="F2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="H2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
@@ -26343,19 +26343,19 @@
         <v>274694.9795149698</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="O2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149698</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="C4" t="n">
         <v>513.1084990597035</v>
@@ -26426,13 +26426,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597035</v>
@@ -26447,19 +26447,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26496,22 +26496,22 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="L5" t="n">
-        <v>49231.47806340948</v>
-      </c>
       <c r="M5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404713.5000078631</v>
+        <v>-399251.9276366257</v>
       </c>
       <c r="C6" t="n">
-        <v>185254.3792066814</v>
+        <v>190715.9515779188</v>
       </c>
       <c r="D6" t="n">
-        <v>185254.3792066814</v>
+        <v>190715.9515779186</v>
       </c>
       <c r="E6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="F6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779186</v>
       </c>
       <c r="G6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="H6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="I6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="J6" t="n">
-        <v>42458.76001408842</v>
+        <v>47920.33238532573</v>
       </c>
       <c r="K6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="L6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779188</v>
       </c>
       <c r="M6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="N6" t="n">
-        <v>218881.9792066814</v>
+        <v>224343.5515779187</v>
       </c>
       <c r="O6" t="n">
-        <v>218881.9792066813</v>
+        <v>224343.5515779186</v>
       </c>
       <c r="P6" t="n">
-        <v>218881.9792066815</v>
+        <v>224343.5515779188</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26764,22 +26764,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26795,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31369,7 +31369,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31378,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31843,7 +31843,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31858,7 +31858,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
@@ -31998,7 +31998,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081578</v>
@@ -32080,7 +32080,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32098,7 +32098,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034983</v>
@@ -32256,7 +32256,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
         <v>95.39071536633799</v>
@@ -32314,13 +32314,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034983</v>
@@ -32472,7 +32472,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081578</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.29709682323551</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034983</v>
@@ -33025,7 +33025,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034983</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33414,46 +33414,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33590,28 +33590,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33827,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34064,28 +34064,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35491,7 +35491,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35506,7 +35506,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
         <v>297.223041434342</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
         <v>146.3614835535656</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
         <v>146.3614835535656</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
